--- a/normal-pref-1.xlsx
+++ b/normal-pref-1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Desktop\Julia\SPL Scheduling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Desktop\GitHub\spl-schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E3C2C1-46C4-4680-9486-BC44E4C786E2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C20EAA5-1241-4964-8630-EA267684B920}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{9B51124B-7AAE-4E43-80F2-9EFEE9D7FD7A}"/>
+    <workbookView xWindow="5760" yWindow="1824" windowWidth="17280" windowHeight="8964" xr2:uid="{9B51124B-7AAE-4E43-80F2-9EFEE9D7FD7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -494,7 +494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{062E8B36-738C-4160-B1EC-A4BD000D181D}">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C4" sqref="C4:S11"/>
     </sheetView>
   </sheetViews>
@@ -590,55 +590,55 @@
         <v>1</v>
       </c>
       <c r="C4" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D4" s="5">
+        <v>-1000</v>
+      </c>
+      <c r="E4" s="5">
+        <v>-1000</v>
+      </c>
+      <c r="F4" s="5">
         <v>-1</v>
       </c>
-      <c r="E4" s="5">
+      <c r="G4" s="5">
         <v>-1</v>
       </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
       <c r="H4" s="5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I4" s="5">
+        <v>-1000</v>
+      </c>
+      <c r="J4" s="5">
         <v>-1</v>
       </c>
-      <c r="J4" s="5">
-        <v>0</v>
-      </c>
       <c r="K4" s="5">
+        <v>-1000</v>
+      </c>
+      <c r="L4" s="5">
+        <v>-1000</v>
+      </c>
+      <c r="M4" s="5">
+        <v>-1000</v>
+      </c>
+      <c r="N4" s="5">
+        <v>-1000</v>
+      </c>
+      <c r="O4" s="5">
+        <v>-1000</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5">
         <v>-1</v>
       </c>
-      <c r="L4" s="5">
+      <c r="R4" s="5">
         <v>-1</v>
       </c>
-      <c r="M4" s="5">
+      <c r="S4" s="6">
         <v>-1</v>
-      </c>
-      <c r="N4" s="5">
-        <v>-1</v>
-      </c>
-      <c r="O4" s="5">
-        <v>-1</v>
-      </c>
-      <c r="P4" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>0</v>
-      </c>
-      <c r="R4" s="5">
-        <v>0</v>
-      </c>
-      <c r="S4" s="6">
-        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -647,55 +647,55 @@
         <v>2</v>
       </c>
       <c r="C5" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="D5" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="E5" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="F5" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G5" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H5" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="I5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="K5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="M5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="O5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="Q5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -704,55 +704,55 @@
         <v>3</v>
       </c>
       <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
         <v>1</v>
       </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
-        <v>2</v>
-      </c>
       <c r="F6" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="G6" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="H6" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="I6" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="J6" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="K6" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="L6" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="M6" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="N6" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="O6" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="P6" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="Q6" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="R6" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="S6" s="6">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -761,55 +761,55 @@
         <v>4</v>
       </c>
       <c r="C7" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="G7" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="I7" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="J7" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="K7" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="L7" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="M7" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="N7" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="O7" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="P7" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="Q7" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="R7" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="S7" s="6">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -818,55 +818,55 @@
         <v>5</v>
       </c>
       <c r="C8" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="I8" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="J8" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="K8" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="L8" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="M8" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="N8" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="O8" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="P8" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="Q8" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="R8" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="S8" s="6">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -875,55 +875,55 @@
         <v>6</v>
       </c>
       <c r="C9" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="D9" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="E9" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="F9" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="G9" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="H9" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="I9" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="J9" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="K9" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="L9" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="N9" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="O9" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="P9" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="Q9" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="S9" s="6">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -932,55 +932,55 @@
         <v>7</v>
       </c>
       <c r="C10" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="D10" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="E10" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="F10" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="G10" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="H10" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="I10" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="J10" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="K10" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="L10" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="Q10" s="5">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="R10" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -989,55 +989,55 @@
         <v>8</v>
       </c>
       <c r="C11" s="7">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="D11" s="7">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="E11" s="7">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="F11" s="7">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="G11" s="7">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="H11" s="7">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="I11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="K11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="7">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="O11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" s="7">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="Q11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" s="7">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="S11" s="8">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
     </row>
   </sheetData>
